--- a/Goals, Target, and Indicators.xlsx
+++ b/Goals, Target, and Indicators.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="645">
   <si>
     <t>Goal</t>
   </si>
@@ -463,9 +463,6 @@
     <t>5.a.2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Proportion of countries where the  legal framework (including customary  law) guarantees womenÕs equal rights to  land ownership and/or control</t>
-  </si>
-  <si>
     <t>5.b</t>
   </si>
   <si>
@@ -481,9 +478,6 @@
     <t>5.c.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Proportion of countries with  systems to track and make public  allocations for gender equality and  womenÕs empowerment</t>
-  </si>
-  <si>
     <t>6.1.1</t>
   </si>
   <si>
@@ -1219,9 +1213,6 @@
     <t>17.2.1</t>
   </si>
   <si>
-    <t>Net official development  assistance, total and to least developed  countries, as a proportion of the  Organization for Economic Cooperation  and Development (OECD) Development  Assistance Committee donorsÕ gross  national income (GNI)</t>
-  </si>
-  <si>
     <t>17.3.1</t>
   </si>
   <si>
@@ -1285,9 +1276,6 @@
     <t>17.11.1</t>
   </si>
   <si>
-    <t>Developing countriesÕ and least  developed countriesÕ share of global  exports</t>
-  </si>
-  <si>
     <t>17.12.1</t>
   </si>
   <si>
@@ -1949,6 +1937,30 @@
   </si>
   <si>
     <t>Extracted from the Sustainable Development Goals website on March 22, 2016.</t>
+  </si>
+  <si>
+    <t>3.6.1</t>
+  </si>
+  <si>
+    <t>Death rate due to road traffic injuries</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Participation rate of youth and adults in formal and non-formal education and training in the previous 12 months, by sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proportion of countries where the  legal framework (including customary  law) guarantees women's equal rights to  land ownership and/or control</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proportion of countries with  systems to track and make public  allocations for gender equality and  women's empowerment</t>
+  </si>
+  <si>
+    <t>Net official development  assistance, total and to least developed  countries, as a proportion of the  Organization for Economic Cooperation  and Development (OECD) Development  Assistance Committee donors' gross  national income (GNI)</t>
+  </si>
+  <si>
+    <t>Developing countries' and least  developed countries' share of global  exports</t>
   </si>
 </sst>
 </file>
@@ -2310,12 +2322,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2332,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2340,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2348,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2356,7 +2368,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2364,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2372,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2380,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2388,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2396,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2404,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2412,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2420,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2428,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2436,7 +2448,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2444,7 +2456,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2452,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2460,7 +2472,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2487,12 +2499,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2509,7 +2521,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2517,7 +2529,7 @@
         <v>1.2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2525,7 +2537,7 @@
         <v>1.3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2533,7 +2545,7 @@
         <v>1.4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2541,7 +2553,7 @@
         <v>1.5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2549,7 +2561,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2557,7 +2569,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2565,7 +2577,7 @@
         <v>2.1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2573,7 +2585,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2581,7 +2593,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2589,7 +2601,7 @@
         <v>2.4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2597,7 +2609,7 @@
         <v>2.5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2605,7 +2617,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2613,7 +2625,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2621,7 +2633,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2629,7 +2641,7 @@
         <v>3.1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2637,7 +2649,7 @@
         <v>3.2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2645,7 +2657,7 @@
         <v>3.3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2653,7 +2665,7 @@
         <v>3.4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2661,7 +2673,7 @@
         <v>3.5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2669,7 +2681,7 @@
         <v>3.6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2677,7 +2689,7 @@
         <v>3.7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2685,7 +2697,7 @@
         <v>3.8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2693,7 +2705,7 @@
         <v>3.9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2701,7 +2713,7 @@
         <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2709,7 +2721,7 @@
         <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2717,7 +2729,7 @@
         <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2725,7 +2737,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2733,7 +2745,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2741,7 +2753,7 @@
         <v>4.2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2749,7 +2761,7 @@
         <v>4.3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2757,7 +2769,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -2765,7 +2777,7 @@
         <v>4.5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -2773,7 +2785,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2781,15 +2793,15 @@
         <v>4.7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -2797,7 +2809,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -2805,7 +2817,7 @@
         <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -2813,7 +2825,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -2821,7 +2833,7 @@
         <v>5.2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2829,7 +2841,7 @@
         <v>5.3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2837,7 +2849,7 @@
         <v>5.4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2845,7 +2857,7 @@
         <v>5.5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -2853,7 +2865,7 @@
         <v>5.6</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2861,23 +2873,23 @@
         <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2885,7 +2897,7 @@
         <v>6.1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2893,7 +2905,7 @@
         <v>6.2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2901,7 +2913,7 @@
         <v>6.3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2909,7 +2921,7 @@
         <v>6.4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2917,7 +2929,7 @@
         <v>6.5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2925,23 +2937,23 @@
         <v>6.6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -2949,7 +2961,7 @@
         <v>7.1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2957,7 +2969,7 @@
         <v>7.2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2965,23 +2977,23 @@
         <v>7.3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -2989,7 +3001,7 @@
         <v>8.1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2997,7 +3009,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3005,7 +3017,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3013,7 +3025,7 @@
         <v>8.4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3021,7 +3033,7 @@
         <v>8.5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -3029,7 +3041,7 @@
         <v>8.6</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3037,7 +3049,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -3045,7 +3057,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -3053,7 +3065,7 @@
         <v>8.9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -3061,23 +3073,23 @@
         <v>8.1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -3085,7 +3097,7 @@
         <v>9.1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -3093,7 +3105,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -3101,7 +3113,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -3109,7 +3121,7 @@
         <v>9.4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -3117,31 +3129,31 @@
         <v>9.5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -3149,7 +3161,7 @@
         <v>10.1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -3157,7 +3169,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -3165,7 +3177,7 @@
         <v>10.3</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -3173,7 +3185,7 @@
         <v>10.4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -3181,7 +3193,7 @@
         <v>10.5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -3189,7 +3201,7 @@
         <v>10.6</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -3197,31 +3209,31 @@
         <v>10.7</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -3229,7 +3241,7 @@
         <v>11.1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -3237,7 +3249,7 @@
         <v>11.2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -3245,7 +3257,7 @@
         <v>11.3</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -3253,7 +3265,7 @@
         <v>11.4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -3261,7 +3273,7 @@
         <v>11.5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -3269,7 +3281,7 @@
         <v>11.6</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3277,31 +3289,31 @@
         <v>11.7</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -3309,7 +3321,7 @@
         <v>12.1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3317,7 +3329,7 @@
         <v>12.2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3325,7 +3337,7 @@
         <v>12.3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3333,7 +3345,7 @@
         <v>12.4</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -3341,7 +3353,7 @@
         <v>12.5</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3349,7 +3361,7 @@
         <v>12.6</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -3357,7 +3369,7 @@
         <v>12.7</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -3365,31 +3377,31 @@
         <v>12.8</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -3397,7 +3409,7 @@
         <v>13.1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -3405,7 +3417,7 @@
         <v>13.2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -3413,23 +3425,23 @@
         <v>13.3</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -3437,7 +3449,7 @@
         <v>14.1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -3445,7 +3457,7 @@
         <v>14.2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -3453,7 +3465,7 @@
         <v>14.3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -3461,7 +3473,7 @@
         <v>14.4</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -3469,7 +3481,7 @@
         <v>14.5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -3477,7 +3489,7 @@
         <v>14.6</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -3485,31 +3497,31 @@
         <v>14.7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -3517,7 +3529,7 @@
         <v>15.1</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -3525,7 +3537,7 @@
         <v>15.2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -3533,7 +3545,7 @@
         <v>15.3</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -3541,7 +3553,7 @@
         <v>15.4</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -3549,7 +3561,7 @@
         <v>15.5</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -3557,7 +3569,7 @@
         <v>15.6</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -3565,7 +3577,7 @@
         <v>15.7</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -3573,7 +3585,7 @@
         <v>15.8</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -3581,31 +3593,31 @@
         <v>15.9</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -3613,7 +3625,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -3621,7 +3633,7 @@
         <v>16.2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -3629,7 +3641,7 @@
         <v>16.3</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -3637,7 +3649,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -3645,7 +3657,7 @@
         <v>16.5</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -3653,7 +3665,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -3661,7 +3673,7 @@
         <v>16.7</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -3669,7 +3681,7 @@
         <v>16.8</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -3677,7 +3689,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -3685,23 +3697,23 @@
         <v>16.100000000000001</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -3709,7 +3721,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -3717,7 +3729,7 @@
         <v>17.2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -3725,7 +3737,7 @@
         <v>17.3</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -3733,7 +3745,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -3741,7 +3753,7 @@
         <v>17.5</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -3749,7 +3761,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -3757,7 +3769,7 @@
         <v>17.7</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -3765,7 +3777,7 @@
         <v>17.8</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -3773,7 +3785,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -3781,7 +3793,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -3789,7 +3801,7 @@
         <v>17.11</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -3797,7 +3809,7 @@
         <v>17.12</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -3805,7 +3817,7 @@
         <v>17.13</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -3813,7 +3825,7 @@
         <v>17.14</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -3821,7 +3833,7 @@
         <v>17.149999999999999</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -3829,7 +3841,7 @@
         <v>17.16</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -3837,7 +3849,7 @@
         <v>17.170000000000002</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -3845,7 +3857,7 @@
         <v>17.18</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -3853,7 +3865,7 @@
         <v>17.190000000000001</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -3863,13 +3875,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D183" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3883,7 +3895,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3892,7 +3904,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3901,7 +3913,7 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3933,3330 +3945,3388 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8">
         <v>1.2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9">
         <v>1.2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10">
         <v>1.3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11">
         <v>1.4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12">
         <v>1.5</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13">
         <v>1.5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17">
         <v>2.1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18">
         <v>2.1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22">
         <v>2.4</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23">
         <v>2.5</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28">
         <v>3.1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29">
         <v>3.1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30">
         <v>3.2</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31">
         <v>3.3</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32">
         <v>3.3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>3</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33">
         <v>3.3</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34">
         <v>3.3</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>3</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35">
         <v>3.4</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>3</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36">
         <v>3.4</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>3</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37">
         <v>3.5</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>3</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38">
         <v>3.5</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>3</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39">
+        <v>3.6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>637</v>
+      </c>
+      <c r="D39" t="s">
+        <v>638</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
         <v>3.7</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>3</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B41">
         <v>3.7</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D41" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>3</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B42">
         <v>3.8</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>3</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B43">
         <v>3.9</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B44">
         <v>3.9</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>3</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>3</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D47" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>3</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>3</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D49" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>4</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B50">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D50" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>4</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B51">
         <v>4.2</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D51" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>4</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B52">
         <v>4.2</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D52" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>4</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B53">
+        <v>4.3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>639</v>
+      </c>
+      <c r="D53" t="s">
+        <v>640</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C54" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D54" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>4</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B55">
         <v>4.5</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C55" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D55" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>4</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B56">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C56" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D56" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>4</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B57">
         <v>4.7</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C57" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D57" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>4</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B58" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C58" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D58" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>4</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B59" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C59" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D59" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>5</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B60">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C60" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D60" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>5</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B61">
         <v>5.2</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C61" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D61" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>5</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B62">
         <v>5.2</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C62" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D62" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>5</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B63">
         <v>5.3</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C63" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D63" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>5</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B64">
         <v>5.3</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C64" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D64" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>5</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B65">
         <v>5.4</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C65" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D65" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>5</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B66">
         <v>5.5</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C66" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>5</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B67">
         <v>5.5</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C67" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D67" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>5</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B68">
         <v>5.6</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C68" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D68" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>5</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B69" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C69" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D69" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>5</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C70" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D70" t="s">
+        <v>641</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>5</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="B72" t="s">
         <v>148</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
+        <v>642</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>6.1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>6.3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>6.4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>6.4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>6.5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>7.1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>165</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>7.2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>7.3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>8.1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>5</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>6</v>
-      </c>
-      <c r="B70" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>6</v>
-      </c>
-      <c r="B71" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>6</v>
-      </c>
-      <c r="B72" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>6</v>
-      </c>
-      <c r="B73" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>6</v>
-      </c>
-      <c r="B74" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>6</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>6</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>7</v>
-      </c>
-      <c r="B77" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>7</v>
-      </c>
-      <c r="B78" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>7</v>
-      </c>
-      <c r="B79" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>7</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>8</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B87">
+        <v>8.4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>8.4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>8.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>8.5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>8.6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>8.9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>8.9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96">
         <v>8.1</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>8</v>
       </c>
-      <c r="B82" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="B97">
+        <v>8.1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>8</v>
       </c>
-      <c r="B83" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" t="s">
+        <v>206</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>9.1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>9.1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C104" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>9.5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>9.5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" t="s">
+        <v>220</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" t="s">
+        <v>223</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" t="s">
+        <v>226</v>
+      </c>
+      <c r="E108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>8</v>
-      </c>
-      <c r="B84" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" s="1" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>10</v>
+      </c>
+      <c r="B109">
+        <v>10.1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" t="s">
+        <v>228</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C110" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" t="s">
+        <v>230</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>10.3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>10.4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" t="s">
+        <v>234</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>10.5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" t="s">
+        <v>236</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114">
+        <v>10.6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>10</v>
+      </c>
+      <c r="B115">
+        <v>10.7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" t="s">
+        <v>240</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" t="s">
+        <v>243</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" t="s">
+        <v>245</v>
+      </c>
+      <c r="D117" t="s">
+        <v>246</v>
+      </c>
+      <c r="E117" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118">
+        <v>11.1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>248</v>
+      </c>
+      <c r="D118" t="s">
+        <v>249</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>11</v>
+      </c>
+      <c r="B119">
+        <v>11.3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" t="s">
+        <v>251</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>11</v>
+      </c>
+      <c r="B120">
+        <v>11.3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120" t="s">
+        <v>253</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>11</v>
+      </c>
+      <c r="B121">
+        <v>11.4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>254</v>
+      </c>
+      <c r="D121" t="s">
+        <v>255</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>11</v>
+      </c>
+      <c r="B122">
+        <v>11.5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>256</v>
+      </c>
+      <c r="D122" t="s">
+        <v>257</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>11</v>
+      </c>
+      <c r="B123">
+        <v>11.6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" t="s">
+        <v>259</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>11</v>
+      </c>
+      <c r="B124">
+        <v>11.7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" t="s">
+        <v>261</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>11</v>
+      </c>
+      <c r="B125">
+        <v>11.7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>262</v>
+      </c>
+      <c r="D125" t="s">
+        <v>263</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" t="s">
+        <v>266</v>
+      </c>
+      <c r="E126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <v>12.2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>267</v>
+      </c>
+      <c r="D127" t="s">
         <v>182</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>8</v>
-      </c>
-      <c r="B86" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>8</v>
-      </c>
-      <c r="B87" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>8</v>
-      </c>
-      <c r="B88" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>8</v>
-      </c>
-      <c r="B89" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>8</v>
-      </c>
-      <c r="B90" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>8</v>
-      </c>
-      <c r="B91" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E91" s="1" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>8</v>
-      </c>
-      <c r="B92" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="B128">
+        <v>12.3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" t="s">
+        <v>269</v>
+      </c>
+      <c r="E128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>8</v>
-      </c>
-      <c r="B93" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>8</v>
-      </c>
-      <c r="B94" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>8</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>8</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>9</v>
-      </c>
-      <c r="B97" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>9</v>
-      </c>
-      <c r="B98" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>9</v>
-      </c>
-      <c r="B99" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>9</v>
-      </c>
-      <c r="B103" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>9</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>9</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="B129">
+        <v>12.4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" t="s">
+        <v>271</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>10</v>
-      </c>
-      <c r="B106" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>10</v>
-      </c>
-      <c r="B107" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>10</v>
-      </c>
-      <c r="B108" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>10</v>
-      </c>
-      <c r="B109" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>10</v>
-      </c>
-      <c r="B110" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>10</v>
-      </c>
-      <c r="B111" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>10</v>
-      </c>
-      <c r="B112" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>10</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>10</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>11</v>
-      </c>
-      <c r="B115" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>11</v>
-      </c>
-      <c r="B116" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E116" s="1" t="s">
+      <c r="B130">
+        <v>12.4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>272</v>
+      </c>
+      <c r="D130" t="s">
+        <v>273</v>
+      </c>
+      <c r="E130" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>11</v>
-      </c>
-      <c r="B117" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>11</v>
-      </c>
-      <c r="B118" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>11</v>
-      </c>
-      <c r="B119" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E119" s="1" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>11</v>
-      </c>
-      <c r="B120" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>11</v>
-      </c>
-      <c r="B121" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="B131">
+        <v>12.6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" t="s">
+        <v>275</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>11</v>
-      </c>
-      <c r="B122" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>11</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="B132">
+        <v>12.7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" t="s">
+        <v>277</v>
+      </c>
+      <c r="E132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>12</v>
       </c>
-      <c r="B124" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E124" s="1" t="s">
+      <c r="B133">
+        <v>12.8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>278</v>
+      </c>
+      <c r="D133" t="s">
+        <v>279</v>
+      </c>
+      <c r="E133" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="B134" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134" t="s">
+        <v>283</v>
+      </c>
+      <c r="E134" t="s">
         <v>12</v>
       </c>
-      <c r="B125" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
         <v>12</v>
       </c>
-      <c r="B126" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="B135" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" t="s">
+        <v>285</v>
+      </c>
+      <c r="D135" t="s">
+        <v>286</v>
+      </c>
+      <c r="E135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>13</v>
+      </c>
+      <c r="B136">
+        <v>13.1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>287</v>
+      </c>
+      <c r="D136" t="s">
+        <v>288</v>
+      </c>
+      <c r="E136" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>13</v>
+      </c>
+      <c r="B137">
+        <v>13.2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>290</v>
+      </c>
+      <c r="D137" t="s">
+        <v>291</v>
+      </c>
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>13</v>
+      </c>
+      <c r="B138">
+        <v>13.3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>292</v>
+      </c>
+      <c r="D138" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>13</v>
+      </c>
+      <c r="B139">
+        <v>13.3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>294</v>
+      </c>
+      <c r="D139" t="s">
+        <v>295</v>
+      </c>
+      <c r="E139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" t="s">
+        <v>297</v>
+      </c>
+      <c r="D140" t="s">
+        <v>298</v>
+      </c>
+      <c r="E140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>13</v>
+      </c>
+      <c r="B141" t="s">
+        <v>299</v>
+      </c>
+      <c r="C141" t="s">
+        <v>300</v>
+      </c>
+      <c r="D141" t="s">
+        <v>301</v>
+      </c>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>14.1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>302</v>
+      </c>
+      <c r="D142" t="s">
+        <v>303</v>
+      </c>
+      <c r="E142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>14</v>
+      </c>
+      <c r="B143">
+        <v>14.2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>304</v>
+      </c>
+      <c r="D143" t="s">
+        <v>305</v>
+      </c>
+      <c r="E143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>14</v>
+      </c>
+      <c r="B144">
+        <v>14.4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>306</v>
+      </c>
+      <c r="D144" t="s">
+        <v>307</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>14</v>
+      </c>
+      <c r="B145">
+        <v>14.5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>308</v>
+      </c>
+      <c r="D145" t="s">
+        <v>309</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>14</v>
+      </c>
+      <c r="B146">
+        <v>14.6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>310</v>
+      </c>
+      <c r="D146" t="s">
+        <v>311</v>
+      </c>
+      <c r="E146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>14</v>
+      </c>
+      <c r="B147">
+        <v>14.7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>312</v>
+      </c>
+      <c r="D147" t="s">
+        <v>313</v>
+      </c>
+      <c r="E147" t="s">
         <v>12</v>
       </c>
-      <c r="B127" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E127" s="1" t="s">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D148" t="s">
+        <v>316</v>
+      </c>
+      <c r="E148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>317</v>
+      </c>
+      <c r="C149" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149" t="s">
+        <v>319</v>
+      </c>
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>15</v>
+      </c>
+      <c r="B150">
+        <v>15.1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>320</v>
+      </c>
+      <c r="D150" t="s">
+        <v>321</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>15</v>
+      </c>
+      <c r="B151">
+        <v>15.1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>322</v>
+      </c>
+      <c r="D151" t="s">
+        <v>323</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>15</v>
+      </c>
+      <c r="B152">
+        <v>15.2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>324</v>
+      </c>
+      <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>15</v>
+      </c>
+      <c r="B153">
+        <v>15.4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>326</v>
+      </c>
+      <c r="D153" t="s">
+        <v>327</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>15</v>
+      </c>
+      <c r="B154">
+        <v>15.4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>328</v>
+      </c>
+      <c r="D154" t="s">
+        <v>329</v>
+      </c>
+      <c r="E154" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>15</v>
+      </c>
+      <c r="B155">
+        <v>15.5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>330</v>
+      </c>
+      <c r="D155" t="s">
+        <v>331</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>15</v>
+      </c>
+      <c r="B156">
+        <v>15.6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>332</v>
+      </c>
+      <c r="D156" t="s">
+        <v>333</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>15</v>
+      </c>
+      <c r="B157">
+        <v>15.7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>334</v>
+      </c>
+      <c r="D157" t="s">
+        <v>335</v>
+      </c>
+      <c r="E157" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>15</v>
+      </c>
+      <c r="B158">
+        <v>15.8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>337</v>
+      </c>
+      <c r="D158" t="s">
+        <v>338</v>
+      </c>
+      <c r="E158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>15</v>
+      </c>
+      <c r="B159">
+        <v>15.9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>339</v>
+      </c>
+      <c r="D159" t="s">
+        <v>340</v>
+      </c>
+      <c r="E159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>15</v>
+      </c>
+      <c r="B160" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" t="s">
+        <v>342</v>
+      </c>
+      <c r="D160" t="s">
+        <v>343</v>
+      </c>
+      <c r="E160" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
+        <v>346</v>
+      </c>
+      <c r="D161" t="s">
+        <v>335</v>
+      </c>
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>16</v>
+      </c>
+      <c r="B162">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C162" t="s">
+        <v>347</v>
+      </c>
+      <c r="D162" t="s">
+        <v>348</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>16</v>
+      </c>
+      <c r="B163">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C163" t="s">
+        <v>349</v>
+      </c>
+      <c r="D163" t="s">
+        <v>350</v>
+      </c>
+      <c r="E163" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>16</v>
+      </c>
+      <c r="B164">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C164" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" t="s">
+        <v>353</v>
+      </c>
+      <c r="E164" t="s">
         <v>12</v>
       </c>
-      <c r="B128" s="1">
-        <v>12.6</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C165" t="s">
+        <v>354</v>
+      </c>
+      <c r="D165" t="s">
+        <v>355</v>
+      </c>
+      <c r="E165" t="s">
         <v>12</v>
       </c>
-      <c r="B129" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>16</v>
+      </c>
+      <c r="B166">
+        <v>16.2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>356</v>
+      </c>
+      <c r="D166" t="s">
+        <v>357</v>
+      </c>
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>16</v>
+      </c>
+      <c r="B167">
+        <v>16.2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" t="s">
+        <v>359</v>
+      </c>
+      <c r="E167" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>16</v>
+      </c>
+      <c r="B168">
+        <v>16.3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" t="s">
+        <v>361</v>
+      </c>
+      <c r="E168" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E131" s="1" t="s">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>16</v>
+      </c>
+      <c r="B169">
+        <v>16.3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>362</v>
+      </c>
+      <c r="D169" t="s">
+        <v>363</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>16</v>
+      </c>
+      <c r="B170">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C170" t="s">
+        <v>364</v>
+      </c>
+      <c r="D170" t="s">
+        <v>365</v>
+      </c>
+      <c r="E170" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>16</v>
+      </c>
+      <c r="B171">
+        <v>16.5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>366</v>
+      </c>
+      <c r="D171" t="s">
+        <v>367</v>
+      </c>
+      <c r="E171" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>13</v>
-      </c>
-      <c r="B133" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>13</v>
-      </c>
-      <c r="B134" s="1">
-        <v>13.2</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>13</v>
-      </c>
-      <c r="B135" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>13</v>
-      </c>
-      <c r="B136" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>13</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>13</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>14</v>
-      </c>
-      <c r="B139" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>14</v>
-      </c>
-      <c r="B140" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>14</v>
-      </c>
-      <c r="B141" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>14</v>
-      </c>
-      <c r="B142" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>14</v>
-      </c>
-      <c r="B143" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>14</v>
-      </c>
-      <c r="B144" s="1">
-        <v>14.7</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E144" s="1" t="s">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>16</v>
+      </c>
+      <c r="B172">
+        <v>16.5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>368</v>
+      </c>
+      <c r="D172" t="s">
+        <v>369</v>
+      </c>
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C173" t="s">
+        <v>370</v>
+      </c>
+      <c r="D173" t="s">
+        <v>371</v>
+      </c>
+      <c r="E173" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>14</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>14</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>15</v>
-      </c>
-      <c r="B147" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>15</v>
-      </c>
-      <c r="B148" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>15</v>
-      </c>
-      <c r="B149" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>15</v>
-      </c>
-      <c r="B150" s="1">
-        <v>15.4</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>15</v>
-      </c>
-      <c r="B151" s="1">
-        <v>15.4</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E151" s="1" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>16</v>
+      </c>
+      <c r="B174">
+        <v>16.7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>372</v>
+      </c>
+      <c r="D174" t="s">
+        <v>373</v>
+      </c>
+      <c r="E174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>16</v>
+      </c>
+      <c r="B175">
+        <v>16.7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>374</v>
+      </c>
+      <c r="D175" t="s">
+        <v>375</v>
+      </c>
+      <c r="E175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>16</v>
+      </c>
+      <c r="B176">
+        <v>16.8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>376</v>
+      </c>
+      <c r="D176" t="s">
+        <v>377</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>16</v>
+      </c>
+      <c r="B177">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C177" t="s">
+        <v>378</v>
+      </c>
+      <c r="D177" t="s">
+        <v>379</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>16</v>
+      </c>
+      <c r="B178">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C178" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" t="s">
+        <v>381</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>16</v>
+      </c>
+      <c r="B179">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C179" t="s">
+        <v>382</v>
+      </c>
+      <c r="D179" t="s">
+        <v>383</v>
+      </c>
+      <c r="E179" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>15</v>
-      </c>
-      <c r="B152" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>15</v>
-      </c>
-      <c r="B153" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>15</v>
-      </c>
-      <c r="B154" s="1">
-        <v>15.7</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>15</v>
-      </c>
-      <c r="B155" s="1">
-        <v>15.8</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>15</v>
-      </c>
-      <c r="B156" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>15</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>15</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
         <v>16</v>
       </c>
-      <c r="B159" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="B180" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" t="s">
+        <v>385</v>
+      </c>
+      <c r="D180" t="s">
+        <v>386</v>
+      </c>
+      <c r="E180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
         <v>16</v>
       </c>
-      <c r="B160" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>16</v>
-      </c>
-      <c r="B161" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>16</v>
-      </c>
-      <c r="B162" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>16</v>
-      </c>
-      <c r="B163" s="1">
-        <v>16.2</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>16</v>
-      </c>
-      <c r="B164" s="1">
-        <v>16.2</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>16</v>
-      </c>
-      <c r="B165" s="1">
-        <v>16.3</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>16</v>
-      </c>
-      <c r="B166" s="1">
-        <v>16.3</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>16</v>
-      </c>
-      <c r="B167" s="1">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>16</v>
-      </c>
-      <c r="B168" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>16</v>
-      </c>
-      <c r="B169" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>16</v>
-      </c>
-      <c r="B170" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>16</v>
-      </c>
-      <c r="B171" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>16</v>
-      </c>
-      <c r="B172" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>16</v>
-      </c>
-      <c r="B173" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>16</v>
-      </c>
-      <c r="B174" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>16</v>
-      </c>
-      <c r="B175" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>16</v>
-      </c>
-      <c r="B176" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>16</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="B181" t="s">
         <v>387</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="C181" t="s">
         <v>388</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>16</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="D181" t="s">
         <v>389</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="E181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>17</v>
+      </c>
+      <c r="B182">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C182" t="s">
         <v>390</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D182" t="s">
         <v>391</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>17</v>
-      </c>
-      <c r="B179" s="1">
+      <c r="E182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>17</v>
+      </c>
+      <c r="B183">
         <v>17.100000000000001</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C183" t="s">
         <v>392</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D183" t="s">
         <v>393</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>17</v>
-      </c>
-      <c r="B180" s="1">
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>17</v>
+      </c>
+      <c r="B184">
+        <v>17.2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>394</v>
+      </c>
+      <c r="D184" t="s">
+        <v>643</v>
+      </c>
+      <c r="E184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>17</v>
+      </c>
+      <c r="B185">
+        <v>17.3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>395</v>
+      </c>
+      <c r="D185" t="s">
+        <v>396</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>17</v>
+      </c>
+      <c r="B186">
+        <v>17.3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>397</v>
+      </c>
+      <c r="D186" t="s">
+        <v>398</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>17</v>
+      </c>
+      <c r="B187">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C187" t="s">
+        <v>399</v>
+      </c>
+      <c r="D187" t="s">
+        <v>400</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>17</v>
+      </c>
+      <c r="B188">
+        <v>17.5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>401</v>
+      </c>
+      <c r="D188" t="s">
+        <v>402</v>
+      </c>
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>17</v>
+      </c>
+      <c r="B189">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C189" t="s">
+        <v>403</v>
+      </c>
+      <c r="D189" t="s">
+        <v>404</v>
+      </c>
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>17</v>
+      </c>
+      <c r="B190">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C190" t="s">
+        <v>405</v>
+      </c>
+      <c r="D190" t="s">
+        <v>406</v>
+      </c>
+      <c r="E190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>17</v>
+      </c>
+      <c r="B191">
+        <v>17.7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>407</v>
+      </c>
+      <c r="D191" t="s">
+        <v>408</v>
+      </c>
+      <c r="E191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>17</v>
+      </c>
+      <c r="B192">
+        <v>17.8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>409</v>
+      </c>
+      <c r="D192" t="s">
+        <v>410</v>
+      </c>
+      <c r="E192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>17</v>
+      </c>
+      <c r="B193">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C193" t="s">
+        <v>411</v>
+      </c>
+      <c r="D193" t="s">
+        <v>412</v>
+      </c>
+      <c r="E193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>17</v>
+      </c>
+      <c r="B194">
         <v>17.100000000000001</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>17</v>
-      </c>
-      <c r="B181" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>17</v>
-      </c>
-      <c r="B182" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>17</v>
-      </c>
-      <c r="B183" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>17</v>
-      </c>
-      <c r="B184" s="1">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>17</v>
-      </c>
-      <c r="B185" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>17</v>
-      </c>
-      <c r="B186" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>17</v>
-      </c>
-      <c r="B187" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>17</v>
-      </c>
-      <c r="B188" s="1">
-        <v>17.7</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>17</v>
-      </c>
-      <c r="B189" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D189" s="1" t="s">
+      <c r="C194" t="s">
         <v>413</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>17</v>
-      </c>
-      <c r="B190" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C190" s="1" t="s">
+      <c r="D194" t="s">
         <v>414</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>17</v>
+      </c>
+      <c r="B195">
+        <v>17.11</v>
+      </c>
+      <c r="C195" t="s">
         <v>415</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>17</v>
-      </c>
-      <c r="B191" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="D195" t="s">
+        <v>644</v>
+      </c>
+      <c r="E195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>17</v>
+      </c>
+      <c r="B196">
+        <v>17.12</v>
+      </c>
+      <c r="C196" t="s">
         <v>416</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D196" t="s">
         <v>417</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>17</v>
-      </c>
-      <c r="B192" s="1">
-        <v>17.11</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="E196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>17</v>
+      </c>
+      <c r="B197">
+        <v>17.13</v>
+      </c>
+      <c r="C197" t="s">
         <v>418</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D197" t="s">
         <v>419</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>17</v>
-      </c>
-      <c r="B193" s="1">
-        <v>17.12</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>17</v>
+      </c>
+      <c r="B198">
+        <v>17.14</v>
+      </c>
+      <c r="C198" t="s">
         <v>420</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D198" t="s">
         <v>421</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>17</v>
-      </c>
-      <c r="B194" s="1">
-        <v>17.13</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="E198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>17</v>
+      </c>
+      <c r="B199">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C199" t="s">
         <v>422</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D199" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>17</v>
-      </c>
-      <c r="B195" s="1">
-        <v>17.14</v>
-      </c>
-      <c r="C195" s="1" t="s">
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>17</v>
+      </c>
+      <c r="B200">
+        <v>17.16</v>
+      </c>
+      <c r="C200" t="s">
         <v>424</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D200" t="s">
         <v>425</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>17</v>
-      </c>
-      <c r="B196" s="1">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="E200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>17</v>
+      </c>
+      <c r="B201">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="C201" t="s">
         <v>426</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D201" t="s">
         <v>427</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>17</v>
-      </c>
-      <c r="B197" s="1">
-        <v>17.16</v>
-      </c>
-      <c r="C197" s="1" t="s">
+      <c r="E201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>17</v>
+      </c>
+      <c r="B202">
+        <v>17.18</v>
+      </c>
+      <c r="C202" t="s">
         <v>428</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D202" t="s">
         <v>429</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>17</v>
-      </c>
-      <c r="B198" s="1">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="C198" s="1" t="s">
+      <c r="E202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>17</v>
+      </c>
+      <c r="B203">
+        <v>17.18</v>
+      </c>
+      <c r="C203" t="s">
         <v>430</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D203" t="s">
         <v>431</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>17</v>
-      </c>
-      <c r="B199" s="1">
+      <c r="E203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>17</v>
+      </c>
+      <c r="B204">
         <v>17.18</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C204" t="s">
         <v>432</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D204" t="s">
         <v>433</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>17</v>
-      </c>
-      <c r="B200" s="1">
-        <v>17.18</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>17</v>
+      </c>
+      <c r="B205">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="C205" t="s">
         <v>434</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D205" t="s">
         <v>435</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>17</v>
-      </c>
-      <c r="B201" s="1">
-        <v>17.18</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>17</v>
-      </c>
-      <c r="B202" s="1">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E202" s="1" t="s">
+      <c r="E205" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Goals, Target, and Indicators.xlsx
+++ b/Goals, Target, and Indicators.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="645">
   <si>
     <t>Goal</t>
   </si>
@@ -3875,13 +3875,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D183" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A205" sqref="A205"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3945,20 +3945,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3966,13 +3966,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -3986,13 +3986,13 @@
         <v>1.2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4000,16 +4000,16 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4017,16 +4017,16 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4034,16 +4034,16 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4054,10 +4054,10 @@
         <v>1.5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -4067,18 +4067,16 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>1.5</v>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4088,25 +4086,27 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14"/>
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -4114,19 +4114,19 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2.1</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4137,10 +4137,10 @@
         <v>2.1</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -4151,13 +4151,13 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -4168,16 +4168,16 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4188,10 +4188,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -4202,13 +4202,13 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -4219,33 +4219,33 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23">
-        <v>2.5</v>
+      <c r="B23" t="s">
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4256,10 +4256,10 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -4270,13 +4270,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -4287,33 +4287,33 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3.1</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4324,13 +4324,13 @@
         <v>3.1</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4338,13 +4338,13 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -4355,13 +4355,13 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -4375,10 +4375,10 @@
         <v>3.3</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -4392,10 +4392,10 @@
         <v>3.3</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -4409,13 +4409,13 @@
         <v>3.3</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4423,13 +4423,13 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -4443,10 +4443,10 @@
         <v>3.4</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -4457,16 +4457,16 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4477,13 +4477,13 @@
         <v>3.5</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4491,13 +4491,13 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>637</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>638</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -4508,13 +4508,13 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C39" t="s">
-        <v>637</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>638</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -4528,10 +4528,10 @@
         <v>3.7</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -4542,16 +4542,16 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4559,16 +4559,16 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -4579,30 +4579,30 @@
         <v>3.9</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
-      <c r="B44">
-        <v>3.9</v>
+      <c r="B44" t="s">
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4610,17 +4610,15 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -4630,25 +4628,27 @@
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46"/>
+        <v>95</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -4659,33 +4659,33 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>4.0999999999999996</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4693,16 +4693,16 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4713,13 +4713,13 @@
         <v>4.2</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -4727,16 +4727,16 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>639</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>640</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -4744,13 +4744,13 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C53" t="s">
-        <v>639</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>640</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -4761,16 +4761,16 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -4778,13 +4778,13 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -4795,13 +4795,13 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -4811,14 +4811,14 @@
       <c r="A57">
         <v>4</v>
       </c>
-      <c r="B57">
-        <v>4.7</v>
+      <c r="B57" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -4829,13 +4829,13 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -4843,19 +4843,19 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -4863,16 +4863,16 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -4883,10 +4883,10 @@
         <v>5.2</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -4897,16 +4897,16 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -4917,10 +4917,10 @@
         <v>5.3</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -4931,16 +4931,16 @@
         <v>5</v>
       </c>
       <c r="B64">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -4948,16 +4948,16 @@
         <v>5</v>
       </c>
       <c r="B65">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -4968,13 +4968,13 @@
         <v>5.5</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -4982,30 +4982,30 @@
         <v>5</v>
       </c>
       <c r="B67">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
-      <c r="B68">
-        <v>5.6</v>
+      <c r="B68" t="s">
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
@@ -5019,10 +5019,10 @@
         <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>641</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
@@ -5033,16 +5033,16 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>641</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -5050,33 +5050,33 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>642</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>148</v>
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>6.1</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>642</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -5084,13 +5084,13 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -5101,16 +5101,16 @@
         <v>6</v>
       </c>
       <c r="B74">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -5121,13 +5121,13 @@
         <v>6.4</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -5135,33 +5135,33 @@
         <v>6</v>
       </c>
       <c r="B76">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6</v>
       </c>
-      <c r="B77">
-        <v>6.5</v>
+      <c r="B77" t="s">
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -5175,7 +5175,7 @@
         <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -5183,16 +5183,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>160</v>
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>7.1</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
@@ -5203,13 +5203,13 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -5220,13 +5220,13 @@
         <v>7</v>
       </c>
       <c r="B81">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -5236,34 +5236,34 @@
       <c r="A82">
         <v>7</v>
       </c>
-      <c r="B82">
-        <v>7.3</v>
+      <c r="B82" t="s">
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>170</v>
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>8.1</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -5271,13 +5271,13 @@
         <v>8</v>
       </c>
       <c r="B84">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -5288,16 +5288,16 @@
         <v>8</v>
       </c>
       <c r="B85">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5305,13 +5305,13 @@
         <v>8</v>
       </c>
       <c r="B86">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -5325,13 +5325,13 @@
         <v>8.4</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -5339,13 +5339,13 @@
         <v>8</v>
       </c>
       <c r="B88">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -5359,10 +5359,10 @@
         <v>8.5</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
@@ -5373,13 +5373,13 @@
         <v>8</v>
       </c>
       <c r="B90">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -5390,13 +5390,13 @@
         <v>8</v>
       </c>
       <c r="B91">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
@@ -5407,13 +5407,13 @@
         <v>8</v>
       </c>
       <c r="B92">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D92" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -5424,16 +5424,16 @@
         <v>8</v>
       </c>
       <c r="B93">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -5444,10 +5444,10 @@
         <v>8.9</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -5458,16 +5458,16 @@
         <v>8</v>
       </c>
       <c r="B95">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D95" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -5478,10 +5478,10 @@
         <v>8.1</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
@@ -5491,14 +5491,14 @@
       <c r="A97">
         <v>8</v>
       </c>
-      <c r="B97">
-        <v>8.1</v>
+      <c r="B97" t="s">
+        <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -5509,30 +5509,30 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>204</v>
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>9.1</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
@@ -5546,13 +5546,13 @@
         <v>9.1</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -5560,13 +5560,13 @@
         <v>9</v>
       </c>
       <c r="B101">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
@@ -5577,16 +5577,16 @@
         <v>9</v>
       </c>
       <c r="B102">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -5597,10 +5597,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E103" t="s">
         <v>17</v>
@@ -5611,16 +5611,16 @@
         <v>9</v>
       </c>
       <c r="B104">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -5631,10 +5631,10 @@
         <v>9.5</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
@@ -5644,14 +5644,14 @@
       <c r="A106">
         <v>9</v>
       </c>
-      <c r="B106">
-        <v>9.5</v>
+      <c r="B106" t="s">
+        <v>221</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D106" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -5662,33 +5662,33 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D107" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>9</v>
-      </c>
-      <c r="B108" t="s">
-        <v>224</v>
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <v>10.1</v>
       </c>
       <c r="C108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -5696,16 +5696,16 @@
         <v>10</v>
       </c>
       <c r="B109">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C109" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D109" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -5713,13 +5713,13 @@
         <v>10</v>
       </c>
       <c r="B110">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E110" t="s">
         <v>17</v>
@@ -5730,16 +5730,16 @@
         <v>10</v>
       </c>
       <c r="B111">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -5747,16 +5747,16 @@
         <v>10</v>
       </c>
       <c r="B112">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -5764,16 +5764,16 @@
         <v>10</v>
       </c>
       <c r="B113">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -5781,33 +5781,33 @@
         <v>10</v>
       </c>
       <c r="B114">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10</v>
       </c>
-      <c r="B115">
-        <v>10.7</v>
+      <c r="B115" t="s">
+        <v>241</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D115" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E115" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -5815,33 +5815,33 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>10</v>
-      </c>
-      <c r="B117" t="s">
-        <v>244</v>
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>11.1</v>
       </c>
       <c r="C117" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E117" t="s">
-        <v>247</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -5849,16 +5849,16 @@
         <v>11</v>
       </c>
       <c r="B118">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -5869,13 +5869,13 @@
         <v>11.3</v>
       </c>
       <c r="C119" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -5883,13 +5883,13 @@
         <v>11</v>
       </c>
       <c r="B120">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D120" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E120" t="s">
         <v>17</v>
@@ -5900,16 +5900,16 @@
         <v>11</v>
       </c>
       <c r="B121">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="C121" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D121" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E121" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -5917,16 +5917,16 @@
         <v>11</v>
       </c>
       <c r="B122">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -5934,16 +5934,16 @@
         <v>11</v>
       </c>
       <c r="B123">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D123" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -5954,27 +5954,27 @@
         <v>11.7</v>
       </c>
       <c r="C124" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D124" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>11</v>
       </c>
-      <c r="B125">
-        <v>11.7</v>
+      <c r="B125" t="s">
+        <v>264</v>
       </c>
       <c r="C125" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D125" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
@@ -5982,19 +5982,19 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>11</v>
-      </c>
-      <c r="B126" t="s">
-        <v>264</v>
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>12.2</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D126" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -6002,16 +6002,16 @@
         <v>12</v>
       </c>
       <c r="B127">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C127" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D127" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6019,16 +6019,16 @@
         <v>12</v>
       </c>
       <c r="B128">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C128" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D128" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E128" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -6039,13 +6039,13 @@
         <v>12.4</v>
       </c>
       <c r="C129" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D129" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -6053,16 +6053,16 @@
         <v>12</v>
       </c>
       <c r="B130">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C130" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D130" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -6070,16 +6070,16 @@
         <v>12</v>
       </c>
       <c r="B131">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C131" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D131" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -6087,33 +6087,33 @@
         <v>12</v>
       </c>
       <c r="B132">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C132" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D132" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E132" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
-      <c r="B133">
-        <v>12.8</v>
+      <c r="B133" t="s">
+        <v>281</v>
       </c>
       <c r="C133" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D133" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E133" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -6121,33 +6121,33 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C134" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D134" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>12</v>
-      </c>
-      <c r="B135" t="s">
-        <v>284</v>
+        <v>13</v>
+      </c>
+      <c r="B135">
+        <v>13.1</v>
       </c>
       <c r="C135" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D135" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E135" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -6155,16 +6155,16 @@
         <v>13</v>
       </c>
       <c r="B136">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D136" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E136" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -6172,13 +6172,13 @@
         <v>13</v>
       </c>
       <c r="B137">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C137" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D137" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E137" t="s">
         <v>17</v>
@@ -6192,10 +6192,10 @@
         <v>13.3</v>
       </c>
       <c r="C138" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E138" t="s">
         <v>17</v>
@@ -6205,14 +6205,14 @@
       <c r="A139">
         <v>13</v>
       </c>
-      <c r="B139">
-        <v>13.3</v>
+      <c r="B139" t="s">
+        <v>296</v>
       </c>
       <c r="C139" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D139" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E139" t="s">
         <v>17</v>
@@ -6223,45 +6223,45 @@
         <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C140" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D140" t="s">
-        <v>298</v>
-      </c>
-      <c r="E140" t="s">
-        <v>17</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E140"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>13</v>
-      </c>
-      <c r="B141" t="s">
-        <v>299</v>
+        <v>14</v>
+      </c>
+      <c r="B141">
+        <v>14.1</v>
       </c>
       <c r="C141" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D141" t="s">
-        <v>301</v>
-      </c>
-      <c r="E141"/>
+        <v>303</v>
+      </c>
+      <c r="E141" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>14</v>
       </c>
       <c r="B142">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D142" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E142" t="s">
         <v>17</v>
@@ -6272,16 +6272,16 @@
         <v>14</v>
       </c>
       <c r="B143">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="C143" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E143" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -6289,13 +6289,13 @@
         <v>14</v>
       </c>
       <c r="B144">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C144" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D144" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -6306,16 +6306,16 @@
         <v>14</v>
       </c>
       <c r="B145">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C145" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D145" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E145" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -6323,33 +6323,33 @@
         <v>14</v>
       </c>
       <c r="B146">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C146" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D146" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E146" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>14</v>
       </c>
-      <c r="B147">
-        <v>14.7</v>
+      <c r="B147" t="s">
+        <v>314</v>
       </c>
       <c r="C147" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D147" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -6357,13 +6357,13 @@
         <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C148" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D148" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E148" t="s">
         <v>17</v>
@@ -6371,19 +6371,19 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>14</v>
-      </c>
-      <c r="B149" t="s">
-        <v>317</v>
+        <v>15</v>
+      </c>
+      <c r="B149">
+        <v>15.1</v>
       </c>
       <c r="C149" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D149" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E149" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -6394,10 +6394,10 @@
         <v>15.1</v>
       </c>
       <c r="C150" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D150" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -6408,16 +6408,16 @@
         <v>15</v>
       </c>
       <c r="B151">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C151" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D151" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -6425,16 +6425,16 @@
         <v>15</v>
       </c>
       <c r="B152">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C152" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E152" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -6445,13 +6445,13 @@
         <v>15.4</v>
       </c>
       <c r="C153" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D153" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -6459,16 +6459,16 @@
         <v>15</v>
       </c>
       <c r="B154">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C154" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D154" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -6476,16 +6476,16 @@
         <v>15</v>
       </c>
       <c r="B155">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C155" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D155" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -6493,16 +6493,16 @@
         <v>15</v>
       </c>
       <c r="B156">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C156" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D156" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -6510,16 +6510,16 @@
         <v>15</v>
       </c>
       <c r="B157">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C157" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E157" t="s">
-        <v>336</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -6527,13 +6527,13 @@
         <v>15</v>
       </c>
       <c r="B158">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C158" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D158" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E158" t="s">
         <v>17</v>
@@ -6543,17 +6543,17 @@
       <c r="A159">
         <v>15</v>
       </c>
-      <c r="B159">
-        <v>15.9</v>
+      <c r="B159" t="s">
+        <v>341</v>
       </c>
       <c r="C159" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D159" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E159" t="s">
-        <v>17</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -6561,32 +6561,32 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C160" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D160" t="s">
-        <v>343</v>
-      </c>
-      <c r="E160" t="s">
-        <v>344</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E160"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>15</v>
-      </c>
-      <c r="B161" t="s">
-        <v>345</v>
+        <v>16</v>
+      </c>
+      <c r="B161">
+        <v>16.100000000000001</v>
       </c>
       <c r="C161" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D161" t="s">
-        <v>335</v>
-      </c>
-      <c r="E161"/>
+        <v>348</v>
+      </c>
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
@@ -6596,13 +6596,13 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C162" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D162" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E162" t="s">
-        <v>7</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -6613,13 +6613,13 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C163" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D163" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E163" t="s">
-        <v>351</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -6630,10 +6630,10 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C164" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D164" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E164" t="s">
         <v>12</v>
@@ -6644,16 +6644,16 @@
         <v>16</v>
       </c>
       <c r="B165">
-        <v>16.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="C165" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D165" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -6664,13 +6664,13 @@
         <v>16.2</v>
       </c>
       <c r="C166" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D166" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E166" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -6678,13 +6678,13 @@
         <v>16</v>
       </c>
       <c r="B167">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D167" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E167" t="s">
         <v>12</v>
@@ -6698,13 +6698,13 @@
         <v>16.3</v>
       </c>
       <c r="C168" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D168" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -6712,16 +6712,16 @@
         <v>16</v>
       </c>
       <c r="B169">
-        <v>16.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C169" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D169" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E169" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6729,13 +6729,13 @@
         <v>16</v>
       </c>
       <c r="B170">
-        <v>16.399999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="C170" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D170" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -6749,13 +6749,13 @@
         <v>16.5</v>
       </c>
       <c r="C171" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D171" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -6763,16 +6763,16 @@
         <v>16</v>
       </c>
       <c r="B172">
-        <v>16.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C172" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D172" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E172" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -6780,16 +6780,16 @@
         <v>16</v>
       </c>
       <c r="B173">
-        <v>16.600000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="C173" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D173" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -6800,10 +6800,10 @@
         <v>16.7</v>
       </c>
       <c r="C174" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D174" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E174" t="s">
         <v>17</v>
@@ -6814,16 +6814,16 @@
         <v>16</v>
       </c>
       <c r="B175">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="C175" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D175" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E175" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -6831,13 +6831,13 @@
         <v>16</v>
       </c>
       <c r="B176">
-        <v>16.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C176" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D176" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E176" t="s">
         <v>7</v>
@@ -6848,16 +6848,16 @@
         <v>16</v>
       </c>
       <c r="B177">
-        <v>16.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C177" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D177" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E177" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -6868,30 +6868,30 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C178" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D178" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E178" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>16</v>
       </c>
-      <c r="B179">
-        <v>16.100000000000001</v>
+      <c r="B179" t="s">
+        <v>384</v>
       </c>
       <c r="C179" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D179" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -6899,33 +6899,33 @@
         <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C180" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D180" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E180" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>16</v>
-      </c>
-      <c r="B181" t="s">
-        <v>387</v>
+        <v>17</v>
+      </c>
+      <c r="B181">
+        <v>17.100000000000001</v>
       </c>
       <c r="C181" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D181" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E181" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -6936,10 +6936,10 @@
         <v>17.100000000000001</v>
       </c>
       <c r="C182" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E182" t="s">
         <v>7</v>
@@ -6950,13 +6950,13 @@
         <v>17</v>
       </c>
       <c r="B183">
-        <v>17.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="C183" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D183" t="s">
-        <v>393</v>
+        <v>643</v>
       </c>
       <c r="E183" t="s">
         <v>7</v>
@@ -6967,13 +6967,13 @@
         <v>17</v>
       </c>
       <c r="B184">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="C184" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D184" t="s">
-        <v>643</v>
+        <v>396</v>
       </c>
       <c r="E184" t="s">
         <v>7</v>
@@ -6987,10 +6987,10 @@
         <v>17.3</v>
       </c>
       <c r="C185" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D185" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -7001,13 +7001,13 @@
         <v>17</v>
       </c>
       <c r="B186">
-        <v>17.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C186" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D186" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E186" t="s">
         <v>7</v>
@@ -7018,30 +7018,28 @@
         <v>17</v>
       </c>
       <c r="B187">
-        <v>17.399999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="C187" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D187" t="s">
-        <v>400</v>
-      </c>
-      <c r="E187" t="s">
-        <v>7</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="E187"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>17</v>
       </c>
       <c r="B188">
-        <v>17.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C188" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D188" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E188"/>
     </row>
@@ -7053,28 +7051,30 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C189" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D189" t="s">
-        <v>404</v>
-      </c>
-      <c r="E189"/>
+        <v>406</v>
+      </c>
+      <c r="E189" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>17</v>
       </c>
       <c r="B190">
-        <v>17.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="C190" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D190" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -7082,16 +7082,16 @@
         <v>17</v>
       </c>
       <c r="B191">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="C191" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D191" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E191" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -7099,13 +7099,13 @@
         <v>17</v>
       </c>
       <c r="B192">
-        <v>17.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C192" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D192" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E192" t="s">
         <v>7</v>
@@ -7116,13 +7116,13 @@
         <v>17</v>
       </c>
       <c r="B193">
-        <v>17.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C193" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D193" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E193" t="s">
         <v>7</v>
@@ -7133,13 +7133,13 @@
         <v>17</v>
       </c>
       <c r="B194">
-        <v>17.100000000000001</v>
+        <v>17.11</v>
       </c>
       <c r="C194" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D194" t="s">
-        <v>414</v>
+        <v>644</v>
       </c>
       <c r="E194" t="s">
         <v>7</v>
@@ -7150,13 +7150,13 @@
         <v>17</v>
       </c>
       <c r="B195">
-        <v>17.11</v>
+        <v>17.12</v>
       </c>
       <c r="C195" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D195" t="s">
-        <v>644</v>
+        <v>417</v>
       </c>
       <c r="E195" t="s">
         <v>7</v>
@@ -7167,48 +7167,48 @@
         <v>17</v>
       </c>
       <c r="B196">
-        <v>17.12</v>
+        <v>17.13</v>
       </c>
       <c r="C196" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D196" t="s">
-        <v>417</v>
-      </c>
-      <c r="E196" t="s">
-        <v>7</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="E196"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>17</v>
       </c>
       <c r="B197">
-        <v>17.13</v>
+        <v>17.14</v>
       </c>
       <c r="C197" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D197" t="s">
-        <v>419</v>
-      </c>
-      <c r="E197"/>
+        <v>421</v>
+      </c>
+      <c r="E197" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>17</v>
       </c>
       <c r="B198">
-        <v>17.14</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="C198" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D198" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E198" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -7216,13 +7216,13 @@
         <v>17</v>
       </c>
       <c r="B199">
-        <v>17.149999999999999</v>
+        <v>17.16</v>
       </c>
       <c r="C199" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D199" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E199" t="s">
         <v>7</v>
@@ -7233,16 +7233,16 @@
         <v>17</v>
       </c>
       <c r="B200">
-        <v>17.16</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="C200" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D200" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -7250,13 +7250,13 @@
         <v>17</v>
       </c>
       <c r="B201">
-        <v>17.170000000000002</v>
+        <v>17.18</v>
       </c>
       <c r="C201" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D201" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E201" t="s">
         <v>17</v>
@@ -7270,10 +7270,10 @@
         <v>17.18</v>
       </c>
       <c r="C202" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D202" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E202" t="s">
         <v>17</v>
@@ -7287,13 +7287,13 @@
         <v>17.18</v>
       </c>
       <c r="C203" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D203" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -7301,32 +7301,15 @@
         <v>17</v>
       </c>
       <c r="B204">
-        <v>17.18</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="C204" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D204" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>17</v>
-      </c>
-      <c r="B205">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="C205" t="s">
-        <v>434</v>
-      </c>
-      <c r="D205" t="s">
-        <v>435</v>
-      </c>
-      <c r="E205" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Goals, Target, and Indicators.xlsx
+++ b/Goals, Target, and Indicators.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="754">
   <si>
     <t>Goal</t>
   </si>
@@ -2159,13 +2159,142 @@
   </si>
   <si>
     <t>Proportion of countries that (a) have conducted at least one population and housing census in the last 10 years; and (b) have achieved 100 per cent birth registration and 80 per cent death registration</t>
+  </si>
+  <si>
+    <t>Tier proposed by agency</t>
+  </si>
+  <si>
+    <t>Tier revised by Secretariat</t>
+  </si>
+  <si>
+    <t>Tier I</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tier II</t>
+  </si>
+  <si>
+    <t>Tier I - data coverage</t>
+  </si>
+  <si>
+    <t>Tier III</t>
+  </si>
+  <si>
+    <t>Tier III - need to establish reporting mechanism</t>
+  </si>
+  <si>
+    <t>Tier III - methodology/standards</t>
+  </si>
+  <si>
+    <t>Tier II - data availability</t>
+  </si>
+  <si>
+    <t>Tier II - data coverage</t>
+  </si>
+  <si>
+    <t>Tier II - data</t>
+  </si>
+  <si>
+    <t>Tier III - international standard for all countries</t>
+  </si>
+  <si>
+    <t>Tier I/II/III - depending on indice</t>
+  </si>
+  <si>
+    <t>Tier III - workplan on methodology</t>
+  </si>
+  <si>
+    <t>Tier I/II</t>
+  </si>
+  <si>
+    <t>Tier I (IPU/UN Women) / Tier III (World Bank)</t>
+  </si>
+  <si>
+    <t>Suggestions from UN Women and IPU: As indicated, this indicator includes Tier 1 and Tier III elements. Therefore, we would suggest modifying the indicator name slightly in the following way -- Proportion of seats held by women in (a) national parliaments and (b) local governments -- and classifying the subcomponents as Tier I and Tier III, respectively.</t>
+  </si>
+  <si>
+    <t>Tier II (UNFPA) / Tier II (WHO) / Tier III (World Bank)</t>
+  </si>
+  <si>
+    <t>Tier II (FAO) / Tier III (World Bank)</t>
+  </si>
+  <si>
+    <t>Tier I (OECD) / Tier III (UN-Women)</t>
+  </si>
+  <si>
+    <t>Tier II (IOM) / Tier III (WB)</t>
+  </si>
+  <si>
+    <t>Tier I (ODA) / Tier II (FDI)</t>
+  </si>
+  <si>
+    <t>Tier I (UNEP) / Tier II (OECD)</t>
+  </si>
+  <si>
+    <t>Tier III - no agreed methodology</t>
+  </si>
+  <si>
+    <t>Tier I (UNESCO) / Tier II (UNEP)</t>
+  </si>
+  <si>
+    <t>Tier III (UNWTO) / Tier II (UNEP)</t>
+  </si>
+  <si>
+    <t>Tier II (UNISDR) / Tier III (UNEP)</t>
+  </si>
+  <si>
+    <t>Tier II (UNISDR) / Tier I (UNEP)</t>
+  </si>
+  <si>
+    <t>Tier III (FAO) / Tier I (UNEP)</t>
+  </si>
+  <si>
+    <t>Tier II (UNCCD) / Tier III (FAO/UNEP)</t>
+  </si>
+  <si>
+    <t>Tier I (UNODC)</t>
+  </si>
+  <si>
+    <t>Tier I (OECD) / Tier II (UNEP)</t>
+  </si>
+  <si>
+    <t>Tier I (ODA) / Tier III (public expenditure)</t>
+  </si>
+  <si>
+    <t>Tier II / Tier III (pending provision of methodology from OHCHR)</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Tier proposed - coded</t>
+  </si>
+  <si>
+    <t>Tier revised - coded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2196,6 +2325,17 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2217,7 +2357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2227,6 +2367,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4073,13 +4215,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4088,9 +4230,10 @@
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="1" customWidth="1"/>
+    <col min="5" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>257</v>
       </c>
@@ -4098,7 +4241,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>258</v>
       </c>
@@ -4106,7 +4249,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>256</v>
       </c>
@@ -4114,13 +4257,13 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -4133,3379 +4276,6283 @@
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="E5" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
+      <c r="E6" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
         <v>1.2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
+      <c r="E7" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
         <v>1.3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
+      <c r="E9" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
         <v>1.4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
+      <c r="E10" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
         <v>1.4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
+      <c r="E11" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
         <v>1.5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
+      <c r="E12" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
         <v>1.5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
+      <c r="E13" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
         <v>1.5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E14" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E15" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E16" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
+      <c r="E17" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H17" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
         <v>2.1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
+      <c r="E18" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
         <v>2.1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
+      <c r="E19" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
+      <c r="E20" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
+      <c r="E21" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
+      <c r="E22" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3</v>
+      </c>
+      <c r="H22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
+      <c r="E23" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
         <v>2.4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
+      <c r="E24" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3</v>
+      </c>
+      <c r="H24" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
         <v>2.5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
+      <c r="E25" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
         <v>2.5</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E26" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E27" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E28" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E29" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="E30" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32">
+      <c r="E31" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+      <c r="H31" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
         <v>3.1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33">
+      <c r="E32" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
         <v>3.1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34">
+      <c r="E33" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
         <v>3.2</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
+      <c r="E34" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
         <v>3.2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36">
+      <c r="E35" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
         <v>3.3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
+      <c r="E36" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
         <v>3.3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38">
+      <c r="E37" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
         <v>3.3</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39">
+      <c r="E38" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
         <v>3.3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40">
+      <c r="E39" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2</v>
+      </c>
+      <c r="H39" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
         <v>3.3</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41">
+      <c r="E40" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
         <v>3.4</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>3</v>
-      </c>
-      <c r="B42">
+      <c r="E41" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G41" s="10">
+        <v>2</v>
+      </c>
+      <c r="H41" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
         <v>3.4</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
+      <c r="E42" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G42" s="10">
+        <v>2</v>
+      </c>
+      <c r="H42" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
         <v>3.5</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44">
+      <c r="E43" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G43" s="10">
+        <v>3</v>
+      </c>
+      <c r="H43" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
         <v>3.5</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45">
+      <c r="E44" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
         <v>3.6</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
+      <c r="E45" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
         <v>3.7</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47">
+      <c r="E46" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
         <v>3.7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48">
+      <c r="E47" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
         <v>3.8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49">
+      <c r="E48" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="G48" s="10">
+        <v>2</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
         <v>3.8</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>3</v>
-      </c>
-      <c r="B50">
+      <c r="E49" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G49" s="10">
+        <v>3</v>
+      </c>
+      <c r="H49" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
         <v>3.9</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51">
+      <c r="E50" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
         <v>3.9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52">
+      <c r="E51" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G51" s="10">
+        <v>2</v>
+      </c>
+      <c r="H51" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
         <v>3.9</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>3</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="E52" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G52" s="10">
+        <v>2</v>
+      </c>
+      <c r="H52" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="E53" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="E54" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="E55" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="E56" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G56" s="10">
+        <v>2</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="E57" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>4</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="E58" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="G58" s="10">
+        <v>1</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>4</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>4.2</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="E59" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G59" s="10">
+        <v>2</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>4</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>4.2</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="E60" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G60" s="10">
+        <v>1</v>
+      </c>
+      <c r="H60" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>4</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>4.3</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="E61" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G61" s="10">
+        <v>2</v>
+      </c>
+      <c r="H61" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>4</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="E62" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G62" s="10">
+        <v>2</v>
+      </c>
+      <c r="H62" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>4</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>4.5</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="E63" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>4</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="E64" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G64" s="10">
+        <v>1</v>
+      </c>
+      <c r="H64" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>4</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>4.7</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="E65" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>4</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="E66" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>4</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="E67" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G67" s="10">
+        <v>1</v>
+      </c>
+      <c r="H67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>4</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="E68" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G68" s="10">
+        <v>1</v>
+      </c>
+      <c r="H68" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>5</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="E69" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G69" s="10">
+        <v>3</v>
+      </c>
+      <c r="H69" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>5</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>5.2</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="E70" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G70" s="10">
+        <v>2</v>
+      </c>
+      <c r="H70" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>5</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>5.2</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="E71" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G71" s="10">
+        <v>2</v>
+      </c>
+      <c r="H71" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>5</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>5.3</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="E72" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1</v>
+      </c>
+      <c r="H72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>5</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>5.3</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="E73" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G73" s="10">
+        <v>1</v>
+      </c>
+      <c r="H73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>5</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>5.4</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="E74" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G74" s="10">
+        <v>2</v>
+      </c>
+      <c r="H74" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>5</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>5.5</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="E75" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>5</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>5.5</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="E76" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H76" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>5</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>5.6</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="E77" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H77" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>5</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>5.6</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="E78" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G78" s="10">
+        <v>3</v>
+      </c>
+      <c r="H78" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>5</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="E79" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G79" s="10">
+        <v>3</v>
+      </c>
+      <c r="H79" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>5</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="E80" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H80" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>5</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="E81" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G81" s="10">
+        <v>2</v>
+      </c>
+      <c r="H81" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>5</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="E82" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H82" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>6</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>6.1</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="E83" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G83" s="10">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>6</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>6.2</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="E84" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G84" s="10">
+        <v>1</v>
+      </c>
+      <c r="H84" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>6</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>6.3</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="E85" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G85" s="10">
+        <v>1</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>6</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>6.3</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="E86" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G86" s="10">
+        <v>2</v>
+      </c>
+      <c r="H86" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>6</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>6.4</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="E87" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G87" s="10">
+        <v>2</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>6</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>6.4</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="E88" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G88" s="10">
+        <v>1</v>
+      </c>
+      <c r="H88" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>6</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>6.5</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="E89" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G89" s="10">
+        <v>1</v>
+      </c>
+      <c r="H89" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>6</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>6.5</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="E90" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G90" s="10">
+        <v>2</v>
+      </c>
+      <c r="H90" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>6</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>6.6</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="E91" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G91" s="10">
+        <v>2</v>
+      </c>
+      <c r="H91" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>6</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="E92" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G92" s="10">
+        <v>1</v>
+      </c>
+      <c r="H92" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>6</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="E93" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G93" s="10">
+        <v>1</v>
+      </c>
+      <c r="H93" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>7</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>7.1</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="E94" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G94" s="10">
+        <v>1</v>
+      </c>
+      <c r="H94" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>7</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>7.1</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="E95" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G95" s="10">
+        <v>1</v>
+      </c>
+      <c r="H95" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>7</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>7.2</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="E96" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G96" s="10">
+        <v>1</v>
+      </c>
+      <c r="H96" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>7</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>7.3</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="E97" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G97" s="10">
+        <v>1</v>
+      </c>
+      <c r="H97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>7</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="E98" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H98" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>7</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="E99" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G99" s="10">
+        <v>3</v>
+      </c>
+      <c r="H99" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>8</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>8.1</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="E100" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G100" s="10">
+        <v>1</v>
+      </c>
+      <c r="H100" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>8</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="E101" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G101" s="10">
+        <v>1</v>
+      </c>
+      <c r="H101" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>8</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="E102" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G102" s="10">
+        <v>2</v>
+      </c>
+      <c r="H102" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>8</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>8.4</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="E103" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G103" s="10">
+        <v>1</v>
+      </c>
+      <c r="H103" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>8</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>8.4</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="E104" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G104" s="10">
+        <v>1</v>
+      </c>
+      <c r="H104" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>8</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>8.5</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="E105" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G105" s="10">
+        <v>1</v>
+      </c>
+      <c r="H105" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>8</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>8.5</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="E106" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G106" s="10">
+        <v>1</v>
+      </c>
+      <c r="H106" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>8</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>8.6</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="E107" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G107" s="10">
+        <v>1</v>
+      </c>
+      <c r="H107" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>8</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="E108" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G108" s="10">
+        <v>1</v>
+      </c>
+      <c r="H108" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>8</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="E109" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G109" s="10">
+        <v>1</v>
+      </c>
+      <c r="H109" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>8</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="E110" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G110" s="10">
+        <v>1</v>
+      </c>
+      <c r="H110" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>8</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>8.9</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="E111" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G111" s="10">
+        <v>2</v>
+      </c>
+      <c r="H111" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>8</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>8.9</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="E112" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G112" s="10">
+        <v>2</v>
+      </c>
+      <c r="H112" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>8</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>8.1</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="E113" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G113" s="10">
+        <v>1</v>
+      </c>
+      <c r="H113" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>8</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>8.1</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="E114" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G114" s="10">
+        <v>1</v>
+      </c>
+      <c r="H114" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>8</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="E115" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G115" s="10">
+        <v>1</v>
+      </c>
+      <c r="H115" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>8</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="E116" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G116" s="10">
+        <v>3</v>
+      </c>
+      <c r="H116" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>9</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>9.1</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="E117" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G117" s="10">
+        <v>2</v>
+      </c>
+      <c r="H117" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>9</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>9.1</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="E118" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G118" s="10">
+        <v>1</v>
+      </c>
+      <c r="H118" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
         <v>9</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="E119" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G119" s="10">
+        <v>1</v>
+      </c>
+      <c r="H119" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>9</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="E120" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G120" s="10">
+        <v>1</v>
+      </c>
+      <c r="H120" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>9</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="E121" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G121" s="10">
+        <v>1</v>
+      </c>
+      <c r="H121" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>9</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="E122" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G122" s="10">
+        <v>1</v>
+      </c>
+      <c r="H122" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>9</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>9.4</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="E123" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G123" s="10">
+        <v>1</v>
+      </c>
+      <c r="H123" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>9</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>9.5</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="E124" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G124" s="10">
+        <v>1</v>
+      </c>
+      <c r="H124" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>9</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>9.5</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="E125" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G125" s="10">
+        <v>1</v>
+      </c>
+      <c r="H125" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>9</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="E126" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G126" s="10">
+        <v>1</v>
+      </c>
+      <c r="H126" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>9</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="E127" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G127" s="10">
+        <v>1</v>
+      </c>
+      <c r="H127" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>9</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="E128" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G128" s="10">
+        <v>1</v>
+      </c>
+      <c r="H128" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>10</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>10.1</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="E129" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G129" s="10">
+        <v>1</v>
+      </c>
+      <c r="H129" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>10</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="E130" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G130" s="10">
+        <v>3</v>
+      </c>
+      <c r="H130" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>10</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>10.3</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="E131" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H131" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>10</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>10.4</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="E132" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G132" s="10">
+        <v>1</v>
+      </c>
+      <c r="H132" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
         <v>10</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>10.5</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="E133" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="H133" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>10</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>10.6</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="E134" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="H134" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>10</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>10.7</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="E135" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G135" s="10">
+        <v>3</v>
+      </c>
+      <c r="H135" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>10</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>10.7</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="E136" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H136" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>10</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="E137" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G137" s="10">
+        <v>1</v>
+      </c>
+      <c r="H137" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>10</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="E138" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="G138" s="10">
+        <v>1</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>10</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="E139" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
         <v>11</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>11.1</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="E140" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G140" s="10">
+        <v>1</v>
+      </c>
+      <c r="H140" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
         <v>11</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>11.2</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="E141" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G141" s="10">
+        <v>2</v>
+      </c>
+      <c r="H141" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>11</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>11.3</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="E142" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G142" s="10">
+        <v>2</v>
+      </c>
+      <c r="H142" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
         <v>11</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>11.3</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="E143" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H143" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
         <v>11</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>11.4</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="E144" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G144" s="10">
+        <v>2</v>
+      </c>
+      <c r="H144" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
         <v>11</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>11.5</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="E145" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G145" s="10">
+        <v>2</v>
+      </c>
+      <c r="H145" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>11</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>11.5</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="E146" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G146" s="10">
+        <v>2</v>
+      </c>
+      <c r="H146" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
         <v>11</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>11.6</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="E147" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G147" s="10">
+        <v>1</v>
+      </c>
+      <c r="H147" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
         <v>11</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>11.6</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="E148" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G148" s="10">
+        <v>1</v>
+      </c>
+      <c r="H148" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
         <v>11</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>11.7</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="E149" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G149" s="10">
+        <v>2</v>
+      </c>
+      <c r="H149" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
         <v>11</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>11.7</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="E150" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G150" s="10">
+        <v>3</v>
+      </c>
+      <c r="H150" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
         <v>11</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="E151" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G151" s="10">
+        <v>3</v>
+      </c>
+      <c r="H151" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
         <v>11</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="E152" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G152" s="10">
+        <v>3</v>
+      </c>
+      <c r="H152" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>11</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="E153" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G153" s="10">
+        <v>2</v>
+      </c>
+      <c r="H153" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
         <v>11</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="E154" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G154" s="10">
+        <v>3</v>
+      </c>
+      <c r="H154" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
         <v>12</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>12.1</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="E155" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>12</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>12.2</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="E156" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H156" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
         <v>12</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>12.2</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="E157" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H157" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
         <v>12</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>12.3</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="E158" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G158" s="10">
+        <v>3</v>
+      </c>
+      <c r="H158" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>12</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>12.4</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="E159" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G159" s="10">
+        <v>1</v>
+      </c>
+      <c r="H159" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
         <v>12</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>12.4</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="E160" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H160" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
         <v>12</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>12.5</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="E161" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H161" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
         <v>12</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>12.6</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="E162" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G162" s="10">
+        <v>1</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>12</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>12.7</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="E163" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G163" s="10">
+        <v>3</v>
+      </c>
+      <c r="H163" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>12</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>12.8</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="E164" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>12</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="E165" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G165" s="10">
+        <v>2</v>
+      </c>
+      <c r="H165" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>12</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="E166" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H166" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>12</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="E167" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G167" s="10">
+        <v>2</v>
+      </c>
+      <c r="H167" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
         <v>13</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>13.1</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="E168" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H168" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
         <v>13</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>13.1</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="E169" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H169" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>13</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>13.2</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="E170" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H170" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
         <v>13</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>13.3</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="E171" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H171" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
         <v>13</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>13.3</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="E172" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H172" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
         <v>13</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="E173" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G173" s="10">
+        <v>3</v>
+      </c>
+      <c r="H173" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
         <v>13</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="E174" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
         <v>14</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>14.1</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="E175" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G175" s="10">
+        <v>2</v>
+      </c>
+      <c r="H175" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
         <v>14</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>14.2</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="E176" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G176" s="10">
+        <v>2</v>
+      </c>
+      <c r="H176" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
         <v>14</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>14.3</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="E177" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G177" s="10">
+        <v>2</v>
+      </c>
+      <c r="H177" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
         <v>14</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>14.4</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="E178" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G178" s="10">
+        <v>1</v>
+      </c>
+      <c r="H178" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
         <v>14</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>14.5</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="E179" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G179" s="10">
+        <v>1</v>
+      </c>
+      <c r="H179" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
         <v>14</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>14.6</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="E180" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G180" s="10">
+        <v>3</v>
+      </c>
+      <c r="H180" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
         <v>14</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>14.7</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="E181" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G181" s="10">
+        <v>2</v>
+      </c>
+      <c r="H181" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
         <v>14</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="E182" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G182" s="10">
+        <v>3</v>
+      </c>
+      <c r="H182" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
         <v>14</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="E183" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G183" s="10">
+        <v>3</v>
+      </c>
+      <c r="H183" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
         <v>14</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="E184" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G184" s="10">
+        <v>3</v>
+      </c>
+      <c r="H184" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
         <v>15</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>15.1</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="E185" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G185" s="10">
+        <v>1</v>
+      </c>
+      <c r="H185" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
         <v>15</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>15.1</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="E186" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G186" s="10">
+        <v>1</v>
+      </c>
+      <c r="H186" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
         <v>15</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>15.2</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="E187" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G187" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H187" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
         <v>15</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>15.3</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="E188" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G188" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H188" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
         <v>15</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>15.4</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="E189" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G189" s="10">
+        <v>1</v>
+      </c>
+      <c r="H189" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
         <v>15</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>15.4</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="E190" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G190" s="10">
+        <v>2</v>
+      </c>
+      <c r="H190" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
         <v>15</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>15.5</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="E191" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G191" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H191" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
         <v>15</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>15.6</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="E192" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G192" s="10">
+        <v>3</v>
+      </c>
+      <c r="H192" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
         <v>15</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>15.7</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="E193" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="H193" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
         <v>15</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>15.8</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="E194" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G194" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H194" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
         <v>15</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>15.9</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="E195" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G195" s="10">
+        <v>3</v>
+      </c>
+      <c r="H195" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
         <v>15</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="E196" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="G196" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
         <v>15</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="E197" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="G197" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H197" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
         <v>15</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="E198" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G198" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H198" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
         <v>16</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="E199" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G199" s="10">
+        <v>1</v>
+      </c>
+      <c r="H199" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
         <v>16</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="E200" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="G200" s="10">
+        <v>1</v>
+      </c>
+      <c r="H200" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
         <v>16</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="E201" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G201" s="10">
+        <v>2</v>
+      </c>
+      <c r="H201" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
         <v>16</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="E202" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G202" s="10">
+        <v>1</v>
+      </c>
+      <c r="H202" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
         <v>16</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1">
         <v>16.2</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="E203" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G203" s="10">
+        <v>1</v>
+      </c>
+      <c r="H203" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
         <v>16</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1">
         <v>16.2</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="E204" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F204" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G204" s="10">
+        <v>2</v>
+      </c>
+      <c r="H204" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
         <v>16</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1">
         <v>16.2</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="E205" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G205" s="10">
+        <v>2</v>
+      </c>
+      <c r="H205" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
         <v>16</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>16.3</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="E206" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G206" s="10">
+        <v>2</v>
+      </c>
+      <c r="H206" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
         <v>16</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1">
         <v>16.3</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="E207" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F207" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G207" s="10">
+        <v>1</v>
+      </c>
+      <c r="H207" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
         <v>16</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="E208" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F208" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G208" s="10">
+        <v>3</v>
+      </c>
+      <c r="H208" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
         <v>16</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="E209" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G209" s="10">
+        <v>2</v>
+      </c>
+      <c r="H209" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
         <v>16</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>16.5</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="E210" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F210" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G210" s="10">
+        <v>2</v>
+      </c>
+      <c r="H210" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
         <v>16</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>16.5</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="E211" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G211" s="10">
+        <v>1</v>
+      </c>
+      <c r="H211" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
         <v>16</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="E212" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G212" s="10">
+        <v>2</v>
+      </c>
+      <c r="H212" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
         <v>16</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="E213" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F213" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H213" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
         <v>16</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="1">
         <v>16.7</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="E214" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F214" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G214" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H214" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
         <v>16</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>16.7</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="E215" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G215" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H215" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
         <v>16</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1">
         <v>16.8</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="E216" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G216" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H216" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
         <v>16</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="E217" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G217" s="10">
+        <v>1</v>
+      </c>
+      <c r="H217" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
         <v>16</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="E218" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F218" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G218" s="10">
+        <v>2</v>
+      </c>
+      <c r="H218" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
         <v>16</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="E219" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G219" s="10">
+        <v>2</v>
+      </c>
+      <c r="H219" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
         <v>16</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="E220" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F220" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G220" s="10">
+        <v>1</v>
+      </c>
+      <c r="H220" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
         <v>16</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="E221" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G221" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H221" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
         <v>17</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="E222" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G222" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H222" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
         <v>17</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="E223" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G223" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H223" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
         <v>17</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="1">
         <v>17.2</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="E224" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G224" s="10">
+        <v>1</v>
+      </c>
+      <c r="H224" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
         <v>17</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="1">
         <v>17.3</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226">
+      <c r="E225" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G225" s="10">
+        <v>1</v>
+      </c>
+      <c r="H225" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
         <v>17</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="1">
         <v>17.3</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227">
+      <c r="E226" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G226" s="10">
+        <v>1</v>
+      </c>
+      <c r="H226" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
         <v>17</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="E227" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G227" s="10">
+        <v>1</v>
+      </c>
+      <c r="H227" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
         <v>17</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="1">
         <v>17.5</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229">
+      <c r="E228" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F228" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G228" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H228" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
         <v>17</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230">
+      <c r="E229" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F229" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G229" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H229" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
         <v>17</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231">
+      <c r="E230" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F230" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G230" s="10">
+        <v>1</v>
+      </c>
+      <c r="H230" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
         <v>17</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="1">
         <v>17.7</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232">
+      <c r="E231" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F231" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G231" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H231" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
         <v>17</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="1">
         <v>17.8</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233">
+      <c r="E232" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F232" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G232" s="10">
+        <v>1</v>
+      </c>
+      <c r="H232" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
         <v>17</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234">
+      <c r="E233" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F233" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G233" s="10">
+        <v>1</v>
+      </c>
+      <c r="H233" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
         <v>17</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235">
+      <c r="E234" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F234" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G234" s="10">
+        <v>1</v>
+      </c>
+      <c r="H234" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
         <v>17</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="1">
         <v>17.11</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236">
+      <c r="E235" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G235" s="10">
+        <v>1</v>
+      </c>
+      <c r="H235" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
         <v>17</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1">
         <v>17.12</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237">
+      <c r="E236" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F236" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G236" s="10">
+        <v>1</v>
+      </c>
+      <c r="H236" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
         <v>17</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="1">
         <v>17.13</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238">
+      <c r="E237" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G237" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H237" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
         <v>17</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="1">
         <v>17.14</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239">
+      <c r="E238" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F238" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G238" s="10">
+        <v>3</v>
+      </c>
+      <c r="H238" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
         <v>17</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="1">
         <v>17.149999999999999</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240">
+      <c r="E239" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G239" s="10">
+        <v>1</v>
+      </c>
+      <c r="H239" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
         <v>17</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="1">
         <v>17.16</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241">
+      <c r="E240" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F240" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G240" s="10">
+        <v>1</v>
+      </c>
+      <c r="H240" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
         <v>17</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1">
         <v>17.170000000000002</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242">
+      <c r="E241" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G241" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H241" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
         <v>17</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>17.18</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243">
+      <c r="E242" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F242" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G242" s="10">
+        <v>2</v>
+      </c>
+      <c r="H242" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
         <v>17</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="1">
         <v>17.18</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244">
+      <c r="E243" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F243" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G243" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H243" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
         <v>17</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1">
         <v>17.18</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245">
+      <c r="E244" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F244" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G244" s="10">
+        <v>2</v>
+      </c>
+      <c r="H244" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
         <v>17</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>17.190000000000001</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246">
+      <c r="E245" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F245" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G245" s="10">
+        <v>1</v>
+      </c>
+      <c r="H245" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
         <v>17</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1">
         <v>17.190000000000001</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="1" t="s">
         <v>710</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F246" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G246" s="10">
+        <v>1</v>
+      </c>
+      <c r="H246" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
